--- a/intr/1020intraday.xlsx
+++ b/intr/1020intraday.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\用户目录\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\dataset\intr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1230A17D-8B44-44AB-A047-521D4974F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C703A9A5-E82B-4DC0-89BA-AC9627ABEC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="617" windowWidth="46685" windowHeight="25630" xr2:uid="{E76DD024-3D16-415C-BB96-4063C53FBDD5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1127">
   <si>
     <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2329,69 +2329,21 @@
     <t>17:00 - 17:15</t>
   </si>
   <si>
-    <t>123,39</t>
-  </si>
-  <si>
-    <t>96,62</t>
-  </si>
-  <si>
-    <t>93,92</t>
-  </si>
-  <si>
-    <t>93,50</t>
-  </si>
-  <si>
     <t>92,30</t>
   </si>
   <si>
-    <t>102,00</t>
-  </si>
-  <si>
-    <t>3 218,2</t>
-  </si>
-  <si>
-    <t>3 163,8</t>
-  </si>
-  <si>
-    <t>3 249,6</t>
-  </si>
-  <si>
     <t>20.10.2025 16:55:00</t>
   </si>
   <si>
     <t>17:15 - 17:30</t>
   </si>
   <si>
-    <t>127,99</t>
-  </si>
-  <si>
     <t>80,11</t>
   </si>
   <si>
-    <t>107,34</t>
-  </si>
-  <si>
-    <t>103,21</t>
-  </si>
-  <si>
-    <t>99,61</t>
-  </si>
-  <si>
     <t>125,82</t>
   </si>
   <si>
-    <t>98,60</t>
-  </si>
-  <si>
-    <t>2 688,4</t>
-  </si>
-  <si>
-    <t>2 693,4</t>
-  </si>
-  <si>
-    <t>2 698,9</t>
-  </si>
-  <si>
     <t>20.10.2025 17:10:00</t>
   </si>
   <si>
@@ -2401,312 +2353,90 @@
     <t>130,16</t>
   </si>
   <si>
-    <t>120,44</t>
-  </si>
-  <si>
-    <t>118,76</t>
-  </si>
-  <si>
-    <t>114,41</t>
-  </si>
-  <si>
-    <t>121,48</t>
-  </si>
-  <si>
-    <t>2 613,4</t>
-  </si>
-  <si>
-    <t>2 590,8</t>
-  </si>
-  <si>
     <t>20.10.2025 17:25:00</t>
   </si>
   <si>
     <t>17:45 - 18:00</t>
   </si>
   <si>
-    <t>141,84</t>
-  </si>
-  <si>
-    <t>103,40</t>
-  </si>
-  <si>
-    <t>129,12</t>
-  </si>
-  <si>
-    <t>127,71</t>
-  </si>
-  <si>
-    <t>119,52</t>
-  </si>
-  <si>
     <t>124,62</t>
   </si>
   <si>
-    <t>121,67</t>
-  </si>
-  <si>
-    <t>3 107,6</t>
-  </si>
-  <si>
-    <t>2 945,9</t>
-  </si>
-  <si>
-    <t>3 127,8</t>
-  </si>
-  <si>
     <t>20.10.2025 17:40:00</t>
   </si>
   <si>
     <t>18:00 - 18:15</t>
   </si>
   <si>
-    <t>125,30</t>
-  </si>
-  <si>
-    <t>98,35</t>
-  </si>
-  <si>
-    <t>114,96</t>
-  </si>
-  <si>
     <t>110,52</t>
   </si>
   <si>
-    <t>119,24</t>
-  </si>
-  <si>
     <t>115,09</t>
   </si>
   <si>
-    <t>2 003,4</t>
-  </si>
-  <si>
-    <t>1 819,0</t>
-  </si>
-  <si>
-    <t>2 116,1</t>
-  </si>
-  <si>
     <t>20.10.2025 17:55:00</t>
   </si>
   <si>
     <t>18:15 - 18:30</t>
   </si>
   <si>
-    <t>106,68</t>
-  </si>
-  <si>
-    <t>124,68</t>
-  </si>
-  <si>
-    <t>123,59</t>
-  </si>
-  <si>
     <t>116,65</t>
   </si>
   <si>
-    <t>123,71</t>
-  </si>
-  <si>
-    <t>1 602,6</t>
-  </si>
-  <si>
-    <t>1 466,9</t>
-  </si>
-  <si>
-    <t>1 649,7</t>
-  </si>
-  <si>
     <t>20.10.2025 18:10:00</t>
   </si>
   <si>
     <t>18:30 - 18:45</t>
   </si>
   <si>
-    <t>143,98</t>
-  </si>
-  <si>
-    <t>106,53</t>
-  </si>
-  <si>
-    <t>129,86</t>
-  </si>
-  <si>
-    <t>131,18</t>
-  </si>
-  <si>
     <t>127,38</t>
   </si>
   <si>
-    <t>130,39</t>
-  </si>
-  <si>
-    <t>1 351,5</t>
-  </si>
-  <si>
-    <t>1 188,1</t>
-  </si>
-  <si>
-    <t>1 380,2</t>
-  </si>
-  <si>
     <t>20.10.2025 18:25:00</t>
   </si>
   <si>
     <t>18:45 - 19:00</t>
   </si>
   <si>
-    <t>150,25</t>
-  </si>
-  <si>
-    <t>121,62</t>
-  </si>
-  <si>
-    <t>135,63</t>
-  </si>
-  <si>
-    <t>141,91</t>
-  </si>
-  <si>
     <t>138,95</t>
   </si>
   <si>
-    <t>145,77</t>
-  </si>
-  <si>
-    <t>1 771,5</t>
-  </si>
-  <si>
-    <t>1 452,8</t>
-  </si>
-  <si>
-    <t>1 934,5</t>
-  </si>
-  <si>
     <t>20.10.2025 18:40:00</t>
   </si>
   <si>
     <t>19:00 - 19:15</t>
   </si>
   <si>
-    <t>132,46</t>
-  </si>
-  <si>
-    <t>111,99</t>
-  </si>
-  <si>
-    <t>122,96</t>
-  </si>
-  <si>
-    <t>124,16</t>
-  </si>
-  <si>
     <t>119,51</t>
   </si>
   <si>
-    <t>124,80</t>
-  </si>
-  <si>
-    <t>1 118,8</t>
-  </si>
-  <si>
-    <t>1 070,5</t>
-  </si>
-  <si>
-    <t>1 119,3</t>
-  </si>
-  <si>
     <t>20.10.2025 18:55:00</t>
   </si>
   <si>
     <t>19:15 - 19:30</t>
   </si>
   <si>
-    <t>128,10</t>
-  </si>
-  <si>
-    <t>113,38</t>
-  </si>
-  <si>
-    <t>119,96</t>
-  </si>
-  <si>
-    <t>121,61</t>
-  </si>
-  <si>
     <t>123,60</t>
   </si>
   <si>
-    <t>123,09</t>
-  </si>
-  <si>
-    <t>866,9</t>
-  </si>
-  <si>
-    <t>792,0</t>
-  </si>
-  <si>
     <t>20.10.2025 19:10:00</t>
   </si>
   <si>
     <t>19:30 - 19:45</t>
   </si>
   <si>
-    <t>128,91</t>
-  </si>
-  <si>
-    <t>113,29</t>
-  </si>
-  <si>
-    <t>121,10</t>
-  </si>
-  <si>
-    <t>123,47</t>
-  </si>
-  <si>
     <t>128,60</t>
   </si>
   <si>
-    <t>124,74</t>
-  </si>
-  <si>
-    <t>1 051,3</t>
-  </si>
-  <si>
-    <t>1 014,4</t>
-  </si>
-  <si>
-    <t>1 053,3</t>
-  </si>
-  <si>
     <t>20.10.2025 19:25:00</t>
   </si>
   <si>
     <t>19:45 - 20:00</t>
   </si>
   <si>
-    <t>131,58</t>
-  </si>
-  <si>
-    <t>111,89</t>
-  </si>
-  <si>
-    <t>119,05</t>
-  </si>
-  <si>
     <t>121,21</t>
   </si>
   <si>
-    <t>118,51</t>
-  </si>
-  <si>
-    <t>878,1</t>
-  </si>
-  <si>
-    <t>852,2</t>
-  </si>
-  <si>
     <t>20.10.2025 19:40:00</t>
   </si>
   <si>
@@ -2716,345 +2446,114 @@
     <t>133,74</t>
   </si>
   <si>
-    <t>108,11</t>
-  </si>
-  <si>
-    <t>118,99</t>
-  </si>
-  <si>
     <t>121,40</t>
   </si>
   <si>
-    <t>122,50</t>
-  </si>
-  <si>
-    <t>862,2</t>
-  </si>
-  <si>
-    <t>791,7</t>
-  </si>
-  <si>
-    <t>884,4</t>
-  </si>
-  <si>
     <t>20.10.2025 19:55:00</t>
   </si>
   <si>
     <t>20:15 - 20:30</t>
   </si>
   <si>
-    <t>117,86</t>
-  </si>
-  <si>
-    <t>101,90</t>
-  </si>
-  <si>
-    <t>106,75</t>
-  </si>
-  <si>
     <t>109,29</t>
   </si>
   <si>
-    <t>108,33</t>
-  </si>
-  <si>
-    <t>576,0</t>
-  </si>
-  <si>
-    <t>493,1</t>
-  </si>
-  <si>
-    <t>594,6</t>
-  </si>
-  <si>
     <t>20.10.2025 20:10:00</t>
   </si>
   <si>
     <t>20:30 - 20:45</t>
   </si>
   <si>
-    <t>109,67</t>
-  </si>
-  <si>
-    <t>93,14</t>
-  </si>
-  <si>
-    <t>98,67</t>
-  </si>
-  <si>
     <t>102,34</t>
   </si>
   <si>
-    <t>102,88</t>
-  </si>
-  <si>
-    <t>600,4</t>
-  </si>
-  <si>
-    <t>493,0</t>
-  </si>
-  <si>
-    <t>621,8</t>
-  </si>
-  <si>
     <t>20.10.2025 20:25:00</t>
   </si>
   <si>
     <t>20:45 - 21:00</t>
   </si>
   <si>
-    <t>101,45</t>
-  </si>
-  <si>
-    <t>87,00</t>
-  </si>
-  <si>
-    <t>91,87</t>
-  </si>
-  <si>
     <t>91,70</t>
   </si>
   <si>
-    <t>92,79</t>
-  </si>
-  <si>
-    <t>655,2</t>
-  </si>
-  <si>
-    <t>498,4</t>
-  </si>
-  <si>
-    <t>787,0</t>
-  </si>
-  <si>
     <t>20.10.2025 20:40:00</t>
   </si>
   <si>
     <t>21:00 - 21:15</t>
   </si>
   <si>
-    <t>109,25</t>
-  </si>
-  <si>
-    <t>91,42</t>
-  </si>
-  <si>
-    <t>100,11</t>
-  </si>
-  <si>
     <t>101,02</t>
   </si>
   <si>
-    <t>102,70</t>
-  </si>
-  <si>
-    <t>512,4</t>
-  </si>
-  <si>
-    <t>493,5</t>
-  </si>
-  <si>
-    <t>533,3</t>
-  </si>
-  <si>
     <t>20.10.2025 20:55:00</t>
   </si>
   <si>
     <t>21:15 - 21:30</t>
   </si>
   <si>
-    <t>97,60</t>
-  </si>
-  <si>
-    <t>85,61</t>
-  </si>
-  <si>
-    <t>90,56</t>
-  </si>
-  <si>
     <t>89,08</t>
   </si>
   <si>
-    <t>93,40</t>
-  </si>
-  <si>
-    <t>448,4</t>
-  </si>
-  <si>
-    <t>416,6</t>
-  </si>
-  <si>
-    <t>471,9</t>
-  </si>
-  <si>
     <t>20.10.2025 21:10:00</t>
   </si>
   <si>
     <t>21:30 - 21:45</t>
   </si>
   <si>
-    <t>92,80</t>
-  </si>
-  <si>
     <t>76,57</t>
   </si>
   <si>
-    <t>81,69</t>
-  </si>
-  <si>
     <t>79,53</t>
   </si>
   <si>
-    <t>84,97</t>
-  </si>
-  <si>
-    <t>395,5</t>
-  </si>
-  <si>
-    <t>371,0</t>
-  </si>
-  <si>
-    <t>426,4</t>
-  </si>
-  <si>
     <t>20.10.2025 21:25:00</t>
   </si>
   <si>
     <t>21:45 - 22:00</t>
   </si>
   <si>
-    <t>85,06</t>
-  </si>
-  <si>
-    <t>72,68</t>
-  </si>
-  <si>
-    <t>79,14</t>
-  </si>
-  <si>
     <t>72,90</t>
   </si>
   <si>
-    <t>80,67</t>
-  </si>
-  <si>
-    <t>391,8</t>
-  </si>
-  <si>
-    <t>382,5</t>
-  </si>
-  <si>
     <t>20.10.2025 21:40:00</t>
   </si>
   <si>
     <t>22:00 - 22:15</t>
   </si>
   <si>
-    <t>96,73</t>
-  </si>
-  <si>
-    <t>88,41</t>
-  </si>
-  <si>
     <t>91,10</t>
   </si>
   <si>
-    <t>94,83</t>
-  </si>
-  <si>
-    <t>305,5</t>
-  </si>
-  <si>
-    <t>288,6</t>
-  </si>
-  <si>
-    <t>315,9</t>
-  </si>
-  <si>
     <t>20.10.2025 21:55:00</t>
   </si>
   <si>
     <t>22:15 - 22:30</t>
   </si>
   <si>
-    <t>94,21</t>
-  </si>
-  <si>
-    <t>82,22</t>
-  </si>
-  <si>
-    <t>87,24</t>
-  </si>
-  <si>
     <t>89,38</t>
   </si>
   <si>
-    <t>278,8</t>
-  </si>
-  <si>
-    <t>255,1</t>
-  </si>
-  <si>
-    <t>287,3</t>
-  </si>
-  <si>
     <t>20.10.2025 22:10:00</t>
   </si>
   <si>
     <t>22:30 - 22:45</t>
   </si>
   <si>
-    <t>85,86</t>
-  </si>
-  <si>
     <t>68,13</t>
   </si>
   <si>
-    <t>75,56</t>
-  </si>
-  <si>
     <t>68,36</t>
   </si>
   <si>
-    <t>79,00</t>
-  </si>
-  <si>
-    <t>327,7</t>
-  </si>
-  <si>
-    <t>316,7</t>
-  </si>
-  <si>
-    <t>373,7</t>
-  </si>
-  <si>
     <t>20.10.2025 22:25:00</t>
   </si>
   <si>
     <t>22:45 - 23:00</t>
   </si>
   <si>
-    <t>73,78</t>
-  </si>
-  <si>
     <t>59,60</t>
   </si>
   <si>
-    <t>66,25</t>
-  </si>
-  <si>
-    <t>68,21</t>
-  </si>
-  <si>
-    <t>650,0</t>
-  </si>
-  <si>
-    <t>413,0</t>
-  </si>
-  <si>
-    <t>738,7</t>
-  </si>
-  <si>
     <t>20.10.2025 22:40:00</t>
   </si>
   <si>
@@ -3064,226 +2563,871 @@
     <t>86,99</t>
   </si>
   <si>
-    <t>78,06</t>
-  </si>
-  <si>
-    <t>82,18</t>
-  </si>
-  <si>
-    <t>84,41</t>
-  </si>
-  <si>
-    <t>205,9</t>
-  </si>
-  <si>
-    <t>245,2</t>
-  </si>
-  <si>
-    <t>254,9</t>
-  </si>
-  <si>
     <t>20.10.2025 22:55:00</t>
   </si>
   <si>
     <t>23:15 - 23:30</t>
   </si>
   <si>
-    <t>78,79</t>
-  </si>
-  <si>
-    <t>73,27</t>
-  </si>
-  <si>
     <t>69,99</t>
   </si>
   <si>
-    <t>75,07</t>
-  </si>
-  <si>
-    <t>291,5</t>
-  </si>
-  <si>
-    <t>286,4</t>
-  </si>
-  <si>
-    <t>322,3</t>
-  </si>
-  <si>
     <t>20.10.2025 23:10:00</t>
   </si>
   <si>
     <t>23:30 - 23:45</t>
   </si>
   <si>
-    <t>71,41</t>
-  </si>
-  <si>
-    <t>63,61</t>
-  </si>
-  <si>
-    <t>67,28</t>
-  </si>
-  <si>
     <t>65,39</t>
   </si>
   <si>
-    <t>69,71</t>
-  </si>
-  <si>
-    <t>427,1</t>
-  </si>
-  <si>
-    <t>276,4</t>
-  </si>
-  <si>
-    <t>470,3</t>
-  </si>
-  <si>
     <t>20.10.2025 23:25:00</t>
   </si>
   <si>
     <t>23:45 - 00:00</t>
   </si>
   <si>
-    <t>64,13</t>
-  </si>
-  <si>
     <t>52,21</t>
   </si>
   <si>
-    <t>58,56</t>
-  </si>
-  <si>
-    <t>61,40</t>
-  </si>
-  <si>
-    <t>641,0</t>
-  </si>
-  <si>
-    <t>330,2</t>
-  </si>
-  <si>
-    <t>750,5</t>
-  </si>
-  <si>
     <t>20.10.2025 23:40:00</t>
   </si>
   <si>
     <t>00:00 - 00:15</t>
   </si>
   <si>
-    <t>62,40</t>
-  </si>
-  <si>
     <t>51,25</t>
   </si>
   <si>
-    <t>55,49</t>
-  </si>
-  <si>
     <t>53,16</t>
   </si>
   <si>
-    <t>62,19</t>
-  </si>
-  <si>
-    <t>694,5</t>
-  </si>
-  <si>
-    <t>403,8</t>
-  </si>
-  <si>
-    <t>868,1</t>
-  </si>
-  <si>
     <t>20.10.2025 23:55:00</t>
   </si>
   <si>
     <t>00:15 - 00:30</t>
   </si>
   <si>
-    <t>72,09</t>
-  </si>
-  <si>
-    <t>57,40</t>
-  </si>
-  <si>
-    <t>62,52</t>
-  </si>
-  <si>
     <t>59,26</t>
   </si>
   <si>
-    <t>63,95</t>
-  </si>
-  <si>
-    <t>347,6</t>
-  </si>
-  <si>
-    <t>344,2</t>
-  </si>
-  <si>
-    <t>349,0</t>
-  </si>
-  <si>
     <t>21.10.2025 00:10:00</t>
   </si>
   <si>
     <t>00:30 - 00:45</t>
   </si>
   <si>
-    <t>66,33</t>
-  </si>
-  <si>
-    <t>57,35</t>
-  </si>
-  <si>
-    <t>61,16</t>
-  </si>
-  <si>
     <t>61,60</t>
   </si>
   <si>
-    <t>62,08</t>
-  </si>
-  <si>
-    <t>336,2</t>
-  </si>
-  <si>
-    <t>277,4</t>
-  </si>
-  <si>
     <t>21.10.2025 00:25:00</t>
   </si>
   <si>
     <t>00:45 - 01:00</t>
   </si>
   <si>
-    <t>59,54</t>
-  </si>
-  <si>
     <t>40,41</t>
   </si>
   <si>
-    <t>50,43</t>
-  </si>
-  <si>
     <t>56,02</t>
   </si>
   <si>
-    <t>49,71</t>
-  </si>
-  <si>
-    <t>516,2</t>
-  </si>
-  <si>
-    <t>371,5</t>
-  </si>
-  <si>
-    <t>520,4</t>
-  </si>
-  <si>
     <t>21.10.2025 00:40:00</t>
+  </si>
+  <si>
+    <t>96,93</t>
+  </si>
+  <si>
+    <t>94,56</t>
+  </si>
+  <si>
+    <t>94,91</t>
+  </si>
+  <si>
+    <t>100,60</t>
+  </si>
+  <si>
+    <t>3 427,3</t>
+  </si>
+  <si>
+    <t>3 388,4</t>
+  </si>
+  <si>
+    <t>3 458,6</t>
+  </si>
+  <si>
+    <t>145,99</t>
+  </si>
+  <si>
+    <t>111,02</t>
+  </si>
+  <si>
+    <t>109,54</t>
+  </si>
+  <si>
+    <t>113,94</t>
+  </si>
+  <si>
+    <t>81,71</t>
+  </si>
+  <si>
+    <t>3 415,0</t>
+  </si>
+  <si>
+    <t>3 422,5</t>
+  </si>
+  <si>
+    <t>3 425,0</t>
+  </si>
+  <si>
+    <t>152,09</t>
+  </si>
+  <si>
+    <t>100,41</t>
+  </si>
+  <si>
+    <t>124,88</t>
+  </si>
+  <si>
+    <t>125,42</t>
+  </si>
+  <si>
+    <t>129,57</t>
+  </si>
+  <si>
+    <t>4 222,4</t>
+  </si>
+  <si>
+    <t>4 205,1</t>
+  </si>
+  <si>
+    <t>150,30</t>
+  </si>
+  <si>
+    <t>69,37</t>
+  </si>
+  <si>
+    <t>125,87</t>
+  </si>
+  <si>
+    <t>123,69</t>
+  </si>
+  <si>
+    <t>119,20</t>
+  </si>
+  <si>
+    <t>74,00</t>
+  </si>
+  <si>
+    <t>4 628,0</t>
+  </si>
+  <si>
+    <t>4 466,3</t>
+  </si>
+  <si>
+    <t>4 648,2</t>
+  </si>
+  <si>
+    <t>126,95</t>
+  </si>
+  <si>
+    <t>71,22</t>
+  </si>
+  <si>
+    <t>107,81</t>
+  </si>
+  <si>
+    <t>102,41</t>
+  </si>
+  <si>
+    <t>95,58</t>
+  </si>
+  <si>
+    <t>77,68</t>
+  </si>
+  <si>
+    <t>3 352,8</t>
+  </si>
+  <si>
+    <t>3 143,5</t>
+  </si>
+  <si>
+    <t>3 455,5</t>
+  </si>
+  <si>
+    <t>138,10</t>
+  </si>
+  <si>
+    <t>56,79</t>
+  </si>
+  <si>
+    <t>118,86</t>
+  </si>
+  <si>
+    <t>116,33</t>
+  </si>
+  <si>
+    <t>110,04</t>
+  </si>
+  <si>
+    <t>3 305,6</t>
+  </si>
+  <si>
+    <t>3 166,5</t>
+  </si>
+  <si>
+    <t>3 409,9</t>
+  </si>
+  <si>
+    <t>145,79</t>
+  </si>
+  <si>
+    <t>67,34</t>
+  </si>
+  <si>
+    <t>119,84</t>
+  </si>
+  <si>
+    <t>116,51</t>
+  </si>
+  <si>
+    <t>105,20</t>
+  </si>
+  <si>
+    <t>86,35</t>
+  </si>
+  <si>
+    <t>3 347,1</t>
+  </si>
+  <si>
+    <t>3 182,3</t>
+  </si>
+  <si>
+    <t>3 438,6</t>
+  </si>
+  <si>
+    <t>159,00</t>
+  </si>
+  <si>
+    <t>75,73</t>
+  </si>
+  <si>
+    <t>124,04</t>
+  </si>
+  <si>
+    <t>119,36</t>
+  </si>
+  <si>
+    <t>102,26</t>
+  </si>
+  <si>
+    <t>77,71</t>
+  </si>
+  <si>
+    <t>3 982,5</t>
+  </si>
+  <si>
+    <t>3 688,3</t>
+  </si>
+  <si>
+    <t>4 359,7</t>
+  </si>
+  <si>
+    <t>74,82</t>
+  </si>
+  <si>
+    <t>117,85</t>
+  </si>
+  <si>
+    <t>116,49</t>
+  </si>
+  <si>
+    <t>102,14</t>
+  </si>
+  <si>
+    <t>96,45</t>
+  </si>
+  <si>
+    <t>3 025,3</t>
+  </si>
+  <si>
+    <t>3 193,2</t>
+  </si>
+  <si>
+    <t>3 467,3</t>
+  </si>
+  <si>
+    <t>133,98</t>
+  </si>
+  <si>
+    <t>80,19</t>
+  </si>
+  <si>
+    <t>113,60</t>
+  </si>
+  <si>
+    <t>111,75</t>
+  </si>
+  <si>
+    <t>97,76</t>
+  </si>
+  <si>
+    <t>89,13</t>
+  </si>
+  <si>
+    <t>2 902,5</t>
+  </si>
+  <si>
+    <t>3 054,3</t>
+  </si>
+  <si>
+    <t>3 366,2</t>
+  </si>
+  <si>
+    <t>199,40</t>
+  </si>
+  <si>
+    <t>72,10</t>
+  </si>
+  <si>
+    <t>111,33</t>
+  </si>
+  <si>
+    <t>108,46</t>
+  </si>
+  <si>
+    <t>99,05</t>
+  </si>
+  <si>
+    <t>110,83</t>
+  </si>
+  <si>
+    <t>3 954,0</t>
+  </si>
+  <si>
+    <t>4 004,2</t>
+  </si>
+  <si>
+    <t>4 386,9</t>
+  </si>
+  <si>
+    <t>144,45</t>
+  </si>
+  <si>
+    <t>86,01</t>
+  </si>
+  <si>
+    <t>107,08</t>
+  </si>
+  <si>
+    <t>103,87</t>
+  </si>
+  <si>
+    <t>100,39</t>
+  </si>
+  <si>
+    <t>124,91</t>
+  </si>
+  <si>
+    <t>3 656,7</t>
+  </si>
+  <si>
+    <t>3 673,0</t>
+  </si>
+  <si>
+    <t>4 096,4</t>
+  </si>
+  <si>
+    <t>135,15</t>
+  </si>
+  <si>
+    <t>74,51</t>
+  </si>
+  <si>
+    <t>111,63</t>
+  </si>
+  <si>
+    <t>109,13</t>
+  </si>
+  <si>
+    <t>100,01</t>
+  </si>
+  <si>
+    <t>86,91</t>
+  </si>
+  <si>
+    <t>3 470,3</t>
+  </si>
+  <si>
+    <t>3 311,9</t>
+  </si>
+  <si>
+    <t>3 559,4</t>
+  </si>
+  <si>
+    <t>176,70</t>
+  </si>
+  <si>
+    <t>82,06</t>
+  </si>
+  <si>
+    <t>104,74</t>
+  </si>
+  <si>
+    <t>104,04</t>
+  </si>
+  <si>
+    <t>104,01</t>
+  </si>
+  <si>
+    <t>135,29</t>
+  </si>
+  <si>
+    <t>3 252,0</t>
+  </si>
+  <si>
+    <t>3 150,3</t>
+  </si>
+  <si>
+    <t>3 342,2</t>
+  </si>
+  <si>
+    <t>165,43</t>
+  </si>
+  <si>
+    <t>64,35</t>
+  </si>
+  <si>
+    <t>100,45</t>
+  </si>
+  <si>
+    <t>100,56</t>
+  </si>
+  <si>
+    <t>105,48</t>
+  </si>
+  <si>
+    <t>140,00</t>
+  </si>
+  <si>
+    <t>3 368,3</t>
+  </si>
+  <si>
+    <t>3 230,2</t>
+  </si>
+  <si>
+    <t>3 450,8</t>
+  </si>
+  <si>
+    <t>141,10</t>
+  </si>
+  <si>
+    <t>76,80</t>
+  </si>
+  <si>
+    <t>94,35</t>
+  </si>
+  <si>
+    <t>94,88</t>
+  </si>
+  <si>
+    <t>130,58</t>
+  </si>
+  <si>
+    <t>3 483,5</t>
+  </si>
+  <si>
+    <t>3 487,2</t>
+  </si>
+  <si>
+    <t>4 100,4</t>
+  </si>
+  <si>
+    <t>158,93</t>
+  </si>
+  <si>
+    <t>105,45</t>
+  </si>
+  <si>
+    <t>106,22</t>
+  </si>
+  <si>
+    <t>112,01</t>
+  </si>
+  <si>
+    <t>144,05</t>
+  </si>
+  <si>
+    <t>3 250,7</t>
+  </si>
+  <si>
+    <t>3 178,4</t>
+  </si>
+  <si>
+    <t>3 278,1</t>
+  </si>
+  <si>
+    <t>143,23</t>
+  </si>
+  <si>
+    <t>83,85</t>
+  </si>
+  <si>
+    <t>99,38</t>
+  </si>
+  <si>
+    <t>101,24</t>
+  </si>
+  <si>
+    <t>109,21</t>
+  </si>
+  <si>
+    <t>110,00</t>
+  </si>
+  <si>
+    <t>2 934,2</t>
+  </si>
+  <si>
+    <t>2 953,0</t>
+  </si>
+  <si>
+    <t>3 089,4</t>
+  </si>
+  <si>
+    <t>125,68</t>
+  </si>
+  <si>
+    <t>92,64</t>
+  </si>
+  <si>
+    <t>95,03</t>
+  </si>
+  <si>
+    <t>103,03</t>
+  </si>
+  <si>
+    <t>100,00</t>
+  </si>
+  <si>
+    <t>2 998,8</t>
+  </si>
+  <si>
+    <t>2 940,3</t>
+  </si>
+  <si>
+    <t>3 096,0</t>
+  </si>
+  <si>
+    <t>124,00</t>
+  </si>
+  <si>
+    <t>69,81</t>
+  </si>
+  <si>
+    <t>85,59</t>
+  </si>
+  <si>
+    <t>87,64</t>
+  </si>
+  <si>
+    <t>98,02</t>
+  </si>
+  <si>
+    <t>104,43</t>
+  </si>
+  <si>
+    <t>2 802,0</t>
+  </si>
+  <si>
+    <t>2 764,3</t>
+  </si>
+  <si>
+    <t>2 912,2</t>
+  </si>
+  <si>
+    <t>140,48</t>
+  </si>
+  <si>
+    <t>99,33</t>
+  </si>
+  <si>
+    <t>101,23</t>
+  </si>
+  <si>
+    <t>2 661,8</t>
+  </si>
+  <si>
+    <t>2 586,8</t>
+  </si>
+  <si>
+    <t>2 672,2</t>
+  </si>
+  <si>
+    <t>140,88</t>
+  </si>
+  <si>
+    <t>76,35</t>
+  </si>
+  <si>
+    <t>94,19</t>
+  </si>
+  <si>
+    <t>96,33</t>
+  </si>
+  <si>
+    <t>101,41</t>
+  </si>
+  <si>
+    <t>127,93</t>
+  </si>
+  <si>
+    <t>2 631,3</t>
+  </si>
+  <si>
+    <t>2 573,2</t>
+  </si>
+  <si>
+    <t>2 683,6</t>
+  </si>
+  <si>
+    <t>146,29</t>
+  </si>
+  <si>
+    <t>94,00</t>
+  </si>
+  <si>
+    <t>98,53</t>
+  </si>
+  <si>
+    <t>110,72</t>
+  </si>
+  <si>
+    <t>136,80</t>
+  </si>
+  <si>
+    <t>2 738,5</t>
+  </si>
+  <si>
+    <t>2 718,1</t>
+  </si>
+  <si>
+    <t>2 857,4</t>
+  </si>
+  <si>
+    <t>153,35</t>
+  </si>
+  <si>
+    <t>54,07</t>
+  </si>
+  <si>
+    <t>77,64</t>
+  </si>
+  <si>
+    <t>83,96</t>
+  </si>
+  <si>
+    <t>95,44</t>
+  </si>
+  <si>
+    <t>111,00</t>
+  </si>
+  <si>
+    <t>3 224,3</t>
+  </si>
+  <si>
+    <t>3 078,6</t>
+  </si>
+  <si>
+    <t>3 580,5</t>
+  </si>
+  <si>
+    <t>117,48</t>
+  </si>
+  <si>
+    <t>48,94</t>
+  </si>
+  <si>
+    <t>87,03</t>
+  </si>
+  <si>
+    <t>84,20</t>
+  </si>
+  <si>
+    <t>64,91</t>
+  </si>
+  <si>
+    <t>2 314,8</t>
+  </si>
+  <si>
+    <t>2 379,6</t>
+  </si>
+  <si>
+    <t>2 428,9</t>
+  </si>
+  <si>
+    <t>124,05</t>
+  </si>
+  <si>
+    <t>49,11</t>
+  </si>
+  <si>
+    <t>81,13</t>
+  </si>
+  <si>
+    <t>82,97</t>
+  </si>
+  <si>
+    <t>82,81</t>
+  </si>
+  <si>
+    <t>104,09</t>
+  </si>
+  <si>
+    <t>2 478,7</t>
+  </si>
+  <si>
+    <t>2 584,5</t>
+  </si>
+  <si>
+    <t>2 681,0</t>
+  </si>
+  <si>
+    <t>55,34</t>
+  </si>
+  <si>
+    <t>76,52</t>
+  </si>
+  <si>
+    <t>75,18</t>
+  </si>
+  <si>
+    <t>67,82</t>
+  </si>
+  <si>
+    <t>3 031,2</t>
+  </si>
+  <si>
+    <t>3 060,6</t>
+  </si>
+  <si>
+    <t>3 382,5</t>
+  </si>
+  <si>
+    <t>98,21</t>
+  </si>
+  <si>
+    <t>49,97</t>
+  </si>
+  <si>
+    <t>68,94</t>
+  </si>
+  <si>
+    <t>73,12</t>
+  </si>
+  <si>
+    <t>71,72</t>
+  </si>
+  <si>
+    <t>66,05</t>
+  </si>
+  <si>
+    <t>3 417,5</t>
+  </si>
+  <si>
+    <t>3 239,4</t>
+  </si>
+  <si>
+    <t>3 942,8</t>
+  </si>
+  <si>
+    <t>129,99</t>
+  </si>
+  <si>
+    <t>72,60</t>
+  </si>
+  <si>
+    <t>86,10</t>
+  </si>
+  <si>
+    <t>3 156,6</t>
+  </si>
+  <si>
+    <t>2 976,6</t>
+  </si>
+  <si>
+    <t>3 775,0</t>
+  </si>
+  <si>
+    <t>166,30</t>
+  </si>
+  <si>
+    <t>56,52</t>
+  </si>
+  <si>
+    <t>79,77</t>
+  </si>
+  <si>
+    <t>84,16</t>
+  </si>
+  <si>
+    <t>92,48</t>
+  </si>
+  <si>
+    <t>3 274,4</t>
+  </si>
+  <si>
+    <t>3 286,3</t>
+  </si>
+  <si>
+    <t>3 633,9</t>
+  </si>
+  <si>
+    <t>53,74</t>
+  </si>
+  <si>
+    <t>75,70</t>
+  </si>
+  <si>
+    <t>79,93</t>
+  </si>
+  <si>
+    <t>84,67</t>
+  </si>
+  <si>
+    <t>106,90</t>
+  </si>
+  <si>
+    <t>3 448,1</t>
+  </si>
+  <si>
+    <t>3 566,9</t>
+  </si>
+  <si>
+    <t>3 873,3</t>
+  </si>
+  <si>
+    <t>125,21</t>
+  </si>
+  <si>
+    <t>71,61</t>
+  </si>
+  <si>
+    <t>78,84</t>
+  </si>
+  <si>
+    <t>87,63</t>
+  </si>
+  <si>
+    <t>120,18</t>
+  </si>
+  <si>
+    <t>3 905,5</t>
+  </si>
+  <si>
+    <t>3 885,7</t>
+  </si>
+  <si>
+    <t>4 260,3</t>
   </si>
 </sst>
 </file>
@@ -3729,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983558B8-561B-4C33-A63D-F5DF230514F8}">
   <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P97"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -6999,45 +7143,45 @@
         <v>15</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>760</v>
+        <v>463</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>333</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="O66" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>762</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>768</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P66" s="4" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>17</v>
@@ -7049,45 +7193,45 @@
         <v>15</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>773</v>
+        <v>870</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>774</v>
+        <v>871</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>775</v>
+        <v>872</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>777</v>
+        <v>873</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>778</v>
+        <v>874</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>779</v>
+        <v>875</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>780</v>
+        <v>876</v>
       </c>
       <c r="O67" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P67" s="8" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>17</v>
@@ -7099,45 +7243,45 @@
         <v>15</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>783</v>
+        <v>877</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>604</v>
+        <v>878</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>784</v>
+        <v>879</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>785</v>
+        <v>880</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>786</v>
+        <v>881</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>604</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>787</v>
+        <v>407</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>17</v>
@@ -7149,45 +7293,45 @@
         <v>15</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>792</v>
+        <v>884</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>793</v>
+        <v>885</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>794</v>
+        <v>886</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>795</v>
+        <v>887</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>796</v>
+        <v>888</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>797</v>
+        <v>770</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>798</v>
+        <v>889</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>799</v>
+        <v>890</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>800</v>
+        <v>891</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>801</v>
+        <v>892</v>
       </c>
       <c r="O69" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>802</v>
+        <v>771</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>17</v>
@@ -7199,45 +7343,45 @@
         <v>15</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>804</v>
+        <v>893</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>805</v>
+        <v>894</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>806</v>
+        <v>895</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>807</v>
+        <v>896</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>808</v>
+        <v>897</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>809</v>
+        <v>774</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>808</v>
+        <v>898</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>810</v>
+        <v>899</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>811</v>
+        <v>900</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>812</v>
+        <v>901</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>813</v>
+        <v>775</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>814</v>
+        <v>776</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>17</v>
@@ -7249,43 +7393,45 @@
         <v>15</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>748</v>
+        <v>902</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>815</v>
+        <v>903</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>816</v>
+        <v>904</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="I71" s="8"/>
+        <v>905</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>906</v>
+      </c>
       <c r="J71" s="8" t="s">
-        <v>818</v>
+        <v>777</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>819</v>
+        <v>694</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>820</v>
+        <v>907</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>821</v>
+        <v>908</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>822</v>
+        <v>909</v>
       </c>
       <c r="O71" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P71" s="8" t="s">
-        <v>823</v>
+        <v>778</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>824</v>
+        <v>779</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
@@ -7297,43 +7443,45 @@
         <v>15</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>825</v>
+        <v>910</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>826</v>
+        <v>911</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>827</v>
+        <v>912</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="I72" s="4"/>
+        <v>913</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>914</v>
+      </c>
       <c r="J72" s="4" t="s">
-        <v>829</v>
+        <v>780</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>830</v>
+        <v>915</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>831</v>
+        <v>916</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>832</v>
+        <v>917</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>833</v>
+        <v>918</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>834</v>
+        <v>781</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>835</v>
+        <v>782</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>17</v>
@@ -7345,43 +7493,45 @@
         <v>15</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>836</v>
+        <v>919</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>837</v>
+        <v>920</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>838</v>
+        <v>921</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="I73" s="8"/>
+        <v>922</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>923</v>
+      </c>
       <c r="J73" s="8" t="s">
-        <v>840</v>
+        <v>783</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>841</v>
+        <v>924</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>842</v>
+        <v>925</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>843</v>
+        <v>926</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>844</v>
+        <v>927</v>
       </c>
       <c r="O73" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P73" s="8" t="s">
-        <v>845</v>
+        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>846</v>
+        <v>785</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -7393,43 +7543,45 @@
         <v>15</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>847</v>
+        <v>798</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>848</v>
+        <v>928</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="I74" s="4"/>
+        <v>930</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>931</v>
+      </c>
       <c r="J74" s="4" t="s">
-        <v>851</v>
+        <v>786</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>852</v>
+        <v>932</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>853</v>
+        <v>933</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>854</v>
+        <v>934</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>855</v>
+        <v>935</v>
       </c>
       <c r="O74" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>856</v>
+        <v>787</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>857</v>
+        <v>788</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>17</v>
@@ -7441,43 +7593,45 @@
         <v>15</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>858</v>
+        <v>936</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>859</v>
+        <v>937</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>860</v>
+        <v>938</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="I75" s="8"/>
+        <v>939</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>940</v>
+      </c>
       <c r="J75" s="8" t="s">
-        <v>862</v>
+        <v>789</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>863</v>
+        <v>941</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>864</v>
+        <v>942</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>865</v>
+        <v>943</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>864</v>
+        <v>944</v>
       </c>
       <c r="O75" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P75" s="8" t="s">
-        <v>866</v>
+        <v>790</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>867</v>
+        <v>791</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>17</v>
@@ -7489,43 +7643,45 @@
         <v>15</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>869</v>
+        <v>946</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>870</v>
+        <v>947</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="I76" s="4"/>
+        <v>948</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>949</v>
+      </c>
       <c r="J76" s="4" t="s">
-        <v>872</v>
+        <v>792</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>873</v>
+        <v>950</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>874</v>
+        <v>951</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>875</v>
+        <v>952</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>876</v>
+        <v>953</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>877</v>
+        <v>793</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>878</v>
+        <v>794</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>17</v>
@@ -7537,43 +7693,45 @@
         <v>15</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>879</v>
+        <v>954</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>880</v>
+        <v>955</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>881</v>
+        <v>956</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="I77" s="8"/>
+        <v>957</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>958</v>
+      </c>
       <c r="J77" s="8" t="s">
-        <v>882</v>
+        <v>795</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>883</v>
+        <v>959</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>884</v>
+        <v>960</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>885</v>
+        <v>961</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>884</v>
+        <v>962</v>
       </c>
       <c r="O77" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P77" s="8" t="s">
-        <v>886</v>
+        <v>796</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>887</v>
+        <v>797</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>17</v>
@@ -7585,41 +7743,45 @@
         <v>15</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>888</v>
+        <v>963</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>889</v>
+        <v>964</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>890</v>
-      </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
+        <v>965</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>967</v>
+      </c>
       <c r="J78" s="4" t="s">
-        <v>891</v>
+        <v>799</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>892</v>
+        <v>968</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>893</v>
+        <v>969</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>894</v>
+        <v>970</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>895</v>
+        <v>971</v>
       </c>
       <c r="O78" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>896</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>897</v>
+        <v>801</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>17</v>
@@ -7631,41 +7793,45 @@
         <v>15</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>898</v>
+        <v>972</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>899</v>
+        <v>973</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+        <v>974</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>976</v>
+      </c>
       <c r="J79" s="8" t="s">
-        <v>901</v>
+        <v>802</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>902</v>
+        <v>977</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>903</v>
+        <v>978</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>904</v>
+        <v>979</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>905</v>
+        <v>980</v>
       </c>
       <c r="O79" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P79" s="8" t="s">
-        <v>906</v>
+        <v>803</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>907</v>
+        <v>804</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>17</v>
@@ -7677,41 +7843,45 @@
         <v>15</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>908</v>
+        <v>981</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>909</v>
+        <v>982</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+        <v>983</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>985</v>
+      </c>
       <c r="J80" s="4" t="s">
-        <v>911</v>
+        <v>805</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>912</v>
+        <v>986</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>913</v>
+        <v>987</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>914</v>
+        <v>988</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>915</v>
+        <v>989</v>
       </c>
       <c r="O80" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>916</v>
+        <v>806</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>917</v>
+        <v>807</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>17</v>
@@ -7723,41 +7893,45 @@
         <v>15</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>918</v>
+        <v>990</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>919</v>
+        <v>991</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>920</v>
-      </c>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+        <v>992</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="J81" s="8" t="s">
-        <v>921</v>
+        <v>808</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>922</v>
+        <v>994</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>923</v>
+        <v>995</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>924</v>
+        <v>996</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>925</v>
+        <v>997</v>
       </c>
       <c r="O81" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P81" s="8" t="s">
-        <v>926</v>
+        <v>809</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>927</v>
+        <v>810</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>17</v>
@@ -7769,41 +7943,45 @@
         <v>15</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>928</v>
+        <v>998</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>929</v>
+        <v>208</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+        <v>999</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>1001</v>
+      </c>
       <c r="J82" s="4" t="s">
-        <v>931</v>
+        <v>811</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>932</v>
+        <v>1002</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>933</v>
+        <v>1003</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>934</v>
+        <v>1004</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>935</v>
+        <v>1005</v>
       </c>
       <c r="O82" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>936</v>
+        <v>812</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>937</v>
+        <v>813</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>17</v>
@@ -7815,41 +7993,45 @@
         <v>15</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>938</v>
+        <v>1006</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>939</v>
+        <v>1007</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>940</v>
-      </c>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+        <v>1008</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>1010</v>
+      </c>
       <c r="J83" s="8" t="s">
-        <v>941</v>
+        <v>814</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>942</v>
+        <v>1011</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>943</v>
+        <v>1012</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>944</v>
+        <v>1013</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>945</v>
+        <v>1014</v>
       </c>
       <c r="O83" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P83" s="8" t="s">
-        <v>946</v>
+        <v>815</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>947</v>
+        <v>816</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>17</v>
@@ -7861,41 +8043,45 @@
         <v>15</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>948</v>
+        <v>1015</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>949</v>
+        <v>817</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>950</v>
-      </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+        <v>1016</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>1018</v>
+      </c>
       <c r="J84" s="4" t="s">
-        <v>951</v>
+        <v>818</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>952</v>
+        <v>1019</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>953</v>
+        <v>1020</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>954</v>
+        <v>1021</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>955</v>
+        <v>1022</v>
       </c>
       <c r="O84" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>956</v>
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>957</v>
+        <v>820</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>17</v>
@@ -7907,41 +8093,45 @@
         <v>15</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>958</v>
+        <v>1023</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>959</v>
+        <v>1024</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>960</v>
-      </c>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+        <v>1025</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>1027</v>
+      </c>
       <c r="J85" s="8" t="s">
-        <v>961</v>
+        <v>821</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>962</v>
+        <v>1028</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>963</v>
+        <v>1029</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>964</v>
+        <v>1030</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>963</v>
+        <v>1031</v>
       </c>
       <c r="O85" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P85" s="8" t="s">
-        <v>965</v>
+        <v>822</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>966</v>
+        <v>823</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>17</v>
@@ -7953,41 +8143,45 @@
         <v>15</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>967</v>
+        <v>1032</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>968</v>
+        <v>256</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
+        <v>1033</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>896</v>
+      </c>
       <c r="J86" s="4" t="s">
-        <v>969</v>
+        <v>824</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>970</v>
+        <v>773</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>971</v>
+        <v>1035</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>972</v>
+        <v>1036</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>973</v>
+        <v>1037</v>
       </c>
       <c r="O86" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>974</v>
+        <v>825</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>975</v>
+        <v>826</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>17</v>
@@ -7999,41 +8193,45 @@
         <v>15</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>976</v>
+        <v>1038</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>977</v>
+        <v>1039</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+        <v>1040</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>1042</v>
+      </c>
       <c r="J87" s="8" t="s">
-        <v>979</v>
+        <v>827</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>315</v>
+        <v>1043</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>980</v>
+        <v>1044</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>981</v>
+        <v>1045</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>982</v>
+        <v>1046</v>
       </c>
       <c r="O87" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P87" s="8" t="s">
-        <v>983</v>
+        <v>828</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>984</v>
+        <v>829</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>17</v>
@@ -8045,41 +8243,45 @@
         <v>15</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>985</v>
+        <v>1047</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>986</v>
+        <v>830</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>987</v>
-      </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+        <v>1048</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>1050</v>
+      </c>
       <c r="J88" s="4" t="s">
-        <v>988</v>
+        <v>831</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>989</v>
+        <v>1051</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>990</v>
+        <v>1052</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>991</v>
+        <v>1053</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>992</v>
+        <v>1054</v>
       </c>
       <c r="O88" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>993</v>
+        <v>832</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>994</v>
+        <v>833</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>17</v>
@@ -8091,41 +8293,45 @@
         <v>15</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>995</v>
+        <v>1055</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>996</v>
+        <v>1056</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>997</v>
-      </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+        <v>1057</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>1059</v>
+      </c>
       <c r="J89" s="8" t="s">
-        <v>996</v>
+        <v>834</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>998</v>
+        <v>1060</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>999</v>
+        <v>1061</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>1000</v>
+        <v>1062</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>1001</v>
+        <v>1063</v>
       </c>
       <c r="O89" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P89" s="8" t="s">
-        <v>1002</v>
+        <v>835</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>1003</v>
+        <v>836</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>17</v>
@@ -8137,41 +8343,45 @@
         <v>15</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>1004</v>
+        <v>1064</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>1005</v>
+        <v>1065</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
+        <v>659</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>1067</v>
+      </c>
       <c r="J90" s="4" t="s">
-        <v>1004</v>
+        <v>837</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>1007</v>
+        <v>1068</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>1008</v>
+        <v>1069</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>1009</v>
+        <v>1070</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>1010</v>
+        <v>1071</v>
       </c>
       <c r="O90" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>1011</v>
+        <v>838</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>1012</v>
+        <v>839</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>17</v>
@@ -8183,41 +8393,45 @@
         <v>15</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>1013</v>
+        <v>1072</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>127</v>
+        <v>1073</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+        <v>1074</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>1076</v>
+      </c>
       <c r="J91" s="8" t="s">
-        <v>1015</v>
+        <v>840</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>1016</v>
+        <v>1077</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>1017</v>
+        <v>1078</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>1018</v>
+        <v>1079</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="O91" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P91" s="8" t="s">
-        <v>1020</v>
+        <v>841</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>1021</v>
+        <v>842</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>17</v>
@@ -8229,41 +8443,45 @@
         <v>15</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>1023</v>
+        <v>1081</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>1083</v>
+      </c>
       <c r="J92" s="4" t="s">
-        <v>1025</v>
+        <v>843</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>1026</v>
+        <v>1084</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>1027</v>
+        <v>1085</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>1028</v>
+        <v>1086</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>1029</v>
+        <v>1087</v>
       </c>
       <c r="O92" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>1030</v>
+        <v>844</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>1031</v>
+        <v>845</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>17</v>
@@ -8275,41 +8493,45 @@
         <v>15</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>1032</v>
+        <v>1088</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>1033</v>
+        <v>1089</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+        <v>1090</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>1092</v>
+      </c>
       <c r="J93" s="8" t="s">
-        <v>1033</v>
+        <v>846</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>1035</v>
+        <v>1093</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>1036</v>
+        <v>1094</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>1037</v>
+        <v>1095</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>1038</v>
+        <v>1096</v>
       </c>
       <c r="O93" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>1039</v>
+        <v>847</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>1040</v>
+        <v>848</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>17</v>
@@ -8321,41 +8543,45 @@
         <v>15</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>1041</v>
+        <v>1097</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>1042</v>
+        <v>849</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
+        <v>1098</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="J94" s="4" t="s">
-        <v>1044</v>
+        <v>850</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>1045</v>
+        <v>511</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>1046</v>
+        <v>1100</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>1047</v>
+        <v>1101</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>1048</v>
+        <v>1102</v>
       </c>
       <c r="O94" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>1049</v>
+        <v>851</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>1050</v>
+        <v>852</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>17</v>
@@ -8367,41 +8593,45 @@
         <v>15</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>1051</v>
+        <v>1103</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>1052</v>
+        <v>1104</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+        <v>1105</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>1107</v>
+      </c>
       <c r="J95" s="8" t="s">
-        <v>1054</v>
+        <v>853</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>1055</v>
+        <v>407</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>1056</v>
+        <v>1108</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>1057</v>
+        <v>1109</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>1058</v>
+        <v>1110</v>
       </c>
       <c r="O95" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>1059</v>
+        <v>854</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>1060</v>
+        <v>855</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>17</v>
@@ -8413,41 +8643,45 @@
         <v>15</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>1061</v>
+        <v>767</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1062</v>
+        <v>1111</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
+        <v>1112</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>1114</v>
+      </c>
       <c r="J96" s="4" t="s">
-        <v>1064</v>
+        <v>856</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>1065</v>
+        <v>1115</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>1066</v>
+        <v>1116</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>1067</v>
+        <v>1117</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>1066</v>
+        <v>1118</v>
       </c>
       <c r="O96" s="4" t="s">
         <v>29</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>1068</v>
+        <v>857</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="27.85" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>1069</v>
+        <v>858</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>17</v>
@@ -8459,40 +8693,45 @@
         <v>15</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>1070</v>
+        <v>1119</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>1071</v>
+        <v>859</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+        <v>1120</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>1122</v>
+      </c>
       <c r="J97" s="8" t="s">
-        <v>1073</v>
+        <v>860</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>1074</v>
+        <v>1123</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>1075</v>
+        <v>1124</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>1076</v>
+        <v>1125</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>1077</v>
+        <v>1126</v>
       </c>
       <c r="O97" s="8" t="s">
         <v>29</v>
       </c>
       <c r="P97" s="8" t="s">
-        <v>1078</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>